--- a/opengever/bundle/tests/assets/os_migration/os_test_create_in_moved_repofolder.xlsx
+++ b/opengever/bundle/tests/assets/os_migration/os_test_create_in_moved_repofolder.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Work/development/opengever.core/opengever/bundle/tests/assets/os_migration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niklausjohner/Work/development/opengever.core2/opengever/bundle/tests/assets/os_migration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F254A48-03C2-274D-BCD5-AD4E3F1F7BBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66986848-50AB-1346-8F74-17652666AAD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="460" windowWidth="25920" windowHeight="10340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1220" yWindow="500" windowWidth="34280" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ordnungssystem" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="102">
   <si>
     <t>reference_number</t>
   </si>
@@ -462,6 +462,12 @@
   </si>
   <si>
     <t>Federführung (aus OS-Tool)</t>
+  </si>
+  <si>
+    <t>Das ist lang</t>
+  </si>
+  <si>
+    <t>Sehr wichtig</t>
   </si>
 </sst>
 </file>
@@ -1198,35 +1204,7 @@
     <cellStyle name="Neutral" xfId="19" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -1628,9 +1606,9 @@
   <sheetPr codeName="Blatt1"/>
   <dimension ref="A1:AC510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U3" sqref="U3:V3"/>
+      <selection pane="bottomLeft" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1792,7 +1770,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:29" s="3" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:29" s="3" customFormat="1" ht="150" x14ac:dyDescent="0.15">
       <c r="A4" s="35" t="s">
         <v>42</v>
       </c>
@@ -1869,7 +1847,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:29" s="42" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:29" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A5" s="54"/>
       <c r="C5" s="43"/>
       <c r="D5" s="44"/>
@@ -2026,7 +2004,7 @@
         <v>67</v>
       </c>
       <c r="N7" s="15">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="P7" s="15" t="s">
         <v>26</v>
@@ -2079,7 +2057,7 @@
         <v>67</v>
       </c>
       <c r="N8" s="15">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="P8" s="15" t="s">
         <v>26</v>
@@ -2118,6 +2096,21 @@
       <c r="I9" s="64"/>
       <c r="J9" s="64"/>
       <c r="K9" s="65"/>
+      <c r="L9" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="N9" s="15">
+        <v>5</v>
+      </c>
+      <c r="P9" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="R9" s="15">
+        <v>30</v>
+      </c>
       <c r="S9" s="61"/>
       <c r="T9" s="62"/>
       <c r="U9" s="62"/>
@@ -2163,7 +2156,7 @@
         <v>67</v>
       </c>
       <c r="N10" s="15">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="P10" s="15" t="s">
         <v>26</v>
@@ -2199,6 +2192,27 @@
       </c>
       <c r="J11" s="64"/>
       <c r="K11" s="65"/>
+      <c r="L11" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="N11" s="15">
+        <v>20</v>
+      </c>
+      <c r="O11" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="P11" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="R11" s="15">
+        <v>30</v>
+      </c>
       <c r="S11" s="61"/>
       <c r="T11" s="62"/>
       <c r="U11" s="62"/>
@@ -15377,10 +15391,10 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="U3">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Eingeschränkte Berechtigung"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Leiter schreiben"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15388,12 +15402,12 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" xWindow="235" yWindow="427" count="6">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="235" yWindow="427" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Wertebereich!$G$2:$G$3</xm:f>
           </x14:formula1>
-          <xm:sqref>M10 M13:M1048576</xm:sqref>
+          <xm:sqref>M13:M1048576 M11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
@@ -15405,25 +15419,25 @@
           <x14:formula1>
             <xm:f>Wertebereich!$F$2:$F$4</xm:f>
           </x14:formula1>
-          <xm:sqref>L10 L13:L1048576</xm:sqref>
+          <xm:sqref>L13:L1048576 L11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>Wertebereich!$J$2:$J$7</xm:f>
           </x14:formula1>
-          <xm:sqref>P10 P13:P1048576</xm:sqref>
+          <xm:sqref>P13:P1048576 P11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
             <xm:f>Wertebereich!$H$2:$H$6</xm:f>
           </x14:formula1>
-          <xm:sqref>N10 N13:N1048576</xm:sqref>
+          <xm:sqref>N13:N1048576 N11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
           <x14:formula1>
             <xm:f>Wertebereich!$L$2:$L$4</xm:f>
           </x14:formula1>
-          <xm:sqref>R10 R13:R1048576</xm:sqref>
+          <xm:sqref>R13:R1048576 R11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -15612,15 +15626,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <oc_termin_lookup_helper xmlns="82675a1d-2274-46ff-95b6-7e628f04e7b8" xsi:nil="true"/>
-    <oc_traktandum_lookup xmlns="96CA5592-7E49-4C69-936A-77E0F19F316B"/>
-    <oc_termin_lookup xmlns="96CA5592-7E49-4C69-936A-77E0F19F316B"/>
-    <oc_document_is_common xmlns="82675a1d-2274-46ff-95b6-7e628f04e7b8" xsi:nil="true"/>
-    <oc_traktandum_lookup_helper xmlns="82675a1d-2274-46ff-95b6-7e628f04e7b8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15815,21 +15826,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <oc_termin_lookup_helper xmlns="82675a1d-2274-46ff-95b6-7e628f04e7b8" xsi:nil="true"/>
+    <oc_traktandum_lookup xmlns="96CA5592-7E49-4C69-936A-77E0F19F316B"/>
+    <oc_termin_lookup xmlns="96CA5592-7E49-4C69-936A-77E0F19F316B"/>
+    <oc_document_is_common xmlns="82675a1d-2274-46ff-95b6-7e628f04e7b8" xsi:nil="true"/>
+    <oc_traktandum_lookup_helper xmlns="82675a1d-2274-46ff-95b6-7e628f04e7b8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63B1394A-812F-4D99-A0FC-B41B7F31C120}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5B73656-B986-42B5-A6F0-2CB7C4F8F507}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="82675a1d-2274-46ff-95b6-7e628f04e7b8"/>
-    <ds:schemaRef ds:uri="96CA5592-7E49-4C69-936A-77E0F19F316B"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -15854,9 +15865,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5B73656-B986-42B5-A6F0-2CB7C4F8F507}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63B1394A-812F-4D99-A0FC-B41B7F31C120}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="82675a1d-2274-46ff-95b6-7e628f04e7b8"/>
+    <ds:schemaRef ds:uri="96CA5592-7E49-4C69-936A-77E0F19F316B"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/opengever/bundle/tests/assets/os_migration/os_test_create_in_moved_repofolder.xlsx
+++ b/opengever/bundle/tests/assets/os_migration/os_test_create_in_moved_repofolder.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niklausjohner/Work/development/opengever.core2/opengever/bundle/tests/assets/os_migration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niklausjohner/Work/development/opengever.core/opengever/bundle/tests/assets/os_migration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66986848-50AB-1346-8F74-17652666AAD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FB3482-86E7-8B4B-9D74-5513A1D878D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1220" yWindow="500" windowWidth="34280" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="104">
   <si>
     <t>reference_number</t>
   </si>
@@ -468,6 +468,12 @@
   </si>
   <si>
     <t>Sehr wichtig</t>
+  </si>
+  <si>
+    <t>faivel.fruhling</t>
+  </si>
+  <si>
+    <t>jurgen.fischer</t>
   </si>
 </sst>
 </file>
@@ -1606,9 +1612,9 @@
   <sheetPr codeName="Blatt1"/>
   <dimension ref="A1:AC510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N6" sqref="N6"/>
+      <selection pane="bottomLeft" activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2022,7 +2028,9 @@
       <c r="Z7" s="15"/>
       <c r="AA7" s="15"/>
       <c r="AB7" s="15"/>
-      <c r="AC7" s="15"/>
+      <c r="AC7" s="15" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="8" spans="1:29" ht="15" x14ac:dyDescent="0.15">
       <c r="A8" s="66" t="s">
@@ -2117,10 +2125,6 @@
       <c r="V9" s="62"/>
       <c r="W9" s="15"/>
       <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15"/>
       <c r="AC9" s="15"/>
     </row>
     <row r="10" spans="1:29" ht="15" x14ac:dyDescent="0.15">
@@ -2170,10 +2174,14 @@
       <c r="V10" s="62"/>
       <c r="W10" s="15"/>
       <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
+      <c r="Y10" s="15" t="s">
+        <v>103</v>
+      </c>
       <c r="Z10" s="15"/>
       <c r="AA10" s="15"/>
-      <c r="AB10" s="15"/>
+      <c r="AB10" s="15" t="s">
+        <v>103</v>
+      </c>
       <c r="AC10" s="15"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.15">
@@ -15626,15 +15634,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100440900994F0F214B9EC76DEC64CCCEC3" ma:contentTypeVersion="" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="3c93ed4d6daf505d37aacf3e1bef2534">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="96CA5592-7E49-4C69-936A-77E0F19F316B" xmlns:ns3="82675a1d-2274-46ff-95b6-7e628f04e7b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0c3cc4f1e90dff483e4da45e10a5d6cb" ns2:_="" ns3:_="">
     <xsd:import namespace="96CA5592-7E49-4C69-936A-77E0F19F316B"/>
@@ -15825,7 +15824,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <oc_termin_lookup_helper xmlns="82675a1d-2274-46ff-95b6-7e628f04e7b8" xsi:nil="true"/>
@@ -15837,15 +15836,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5B73656-B986-42B5-A6F0-2CB7C4F8F507}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37806679-E8E8-4A87-9E25-D47F01162BB9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15864,7 +15864,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63B1394A-812F-4D99-A0FC-B41B7F31C120}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -15873,4 +15873,12 @@
     <ds:schemaRef ds:uri="96CA5592-7E49-4C69-936A-77E0F19F316B"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5B73656-B986-42B5-A6F0-2CB7C4F8F507}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>